--- a/test-cases-16.04.2017.xlsx
+++ b/test-cases-16.04.2017.xlsx
@@ -162,13 +162,6 @@
     <t>Register with valid data</t>
   </si>
   <si>
-    <t>1: Open blog "Register" page
-2: Type "test{today's date}@test.com" in "Email" field
-3: Type "Ivan Ivanov" in "Full Name" field
-4: Type "123456" in "Password" field
-5: Type "123456"in "Confirm Password"field 6: Click on "Register" button</t>
-  </si>
-  <si>
     <t>System should create new account. User should be redirected to "Home" page. In the top right corner fn the header it should have "Hello {user's email}!" text. Instead of "Log in" link there should be a "Log off" link</t>
   </si>
   <si>
@@ -384,6 +377,13 @@
   </si>
   <si>
     <t>Blog</t>
+  </si>
+  <si>
+    <t>1: Open blog "Register" page
+2: Type "test{today's date}@test.com" in "Email" field
+3: Type "Ivan Ivanov" in "Full Name" field
+4: Type "123456" in "Password" field
+5: Type "123456"in "Confirm Password" field 6: Click on "Register" button</t>
   </si>
 </sst>
 </file>
@@ -391,14 +391,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="18">
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -837,222 +832,222 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3659,8 +3654,8 @@
   </sheetPr>
   <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -3680,9 +3675,9 @@
       <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -3695,9 +3690,9 @@
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A2" s="5"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -3712,57 +3707,57 @@
       <c r="A3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
+      <c r="B3" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="65"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
       <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="12.75">
       <c r="A4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="74"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
       <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="23" customFormat="1" ht="12.75">
       <c r="A5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="69"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
       <c r="M5" s="22"/>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1">
@@ -3783,11 +3778,11 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
       <c r="M6" s="7"/>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -3808,18 +3803,18 @@
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
       <c r="M7" s="7"/>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="66"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -3831,82 +3826,82 @@
       <c r="M8" s="7"/>
     </row>
     <row r="9" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="75" t="s">
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="78" t="s">
+      <c r="J9" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="78" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="55" t="s">
+      <c r="L9" s="67" t="s">
         <v>18</v>
       </c>
       <c r="M9" s="24"/>
     </row>
     <row r="10" spans="1:13" s="19" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="55"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="55"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="67"/>
       <c r="M10" s="18"/>
     </row>
     <row r="11" spans="1:13" s="26" customFormat="1" ht="15">
-      <c r="A11" s="76"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="77"/>
+      <c r="A11" s="73"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="74"/>
     </row>
     <row r="12" spans="1:13" s="3" customFormat="1" ht="12.75">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="52"/>
     </row>
     <row r="13" spans="1:13" s="3" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A13" s="30" t="s">
@@ -3916,15 +3911,15 @@
         <v>34</v>
       </c>
       <c r="C13" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
       <c r="G13" s="28"/>
-      <c r="H13" s="79">
+      <c r="H13" s="47">
         <v>42841</v>
       </c>
       <c r="I13" s="29" t="s">
@@ -3932,7 +3927,7 @@
       </c>
       <c r="J13" s="29"/>
       <c r="K13" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L13" s="27"/>
     </row>
@@ -3941,18 +3936,18 @@
         <v>2</v>
       </c>
       <c r="B14" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
+      <c r="D14" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
       <c r="G14" s="28"/>
-      <c r="H14" s="79">
+      <c r="H14" s="47">
         <v>42841</v>
       </c>
       <c r="I14" s="29" t="s">
@@ -3960,7 +3955,7 @@
       </c>
       <c r="J14" s="29"/>
       <c r="K14" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L14" s="27"/>
     </row>
@@ -3969,28 +3964,28 @@
         <v>3</v>
       </c>
       <c r="B15" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
+      <c r="D15" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
       <c r="G15" s="28"/>
-      <c r="H15" s="79">
+      <c r="H15" s="47">
         <v>42841</v>
       </c>
       <c r="I15" s="29" t="s">
         <v>8</v>
       </c>
       <c r="J15" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L15" s="27"/>
     </row>
@@ -3999,18 +3994,18 @@
         <v>4</v>
       </c>
       <c r="B16" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
       <c r="G16" s="28"/>
-      <c r="H16" s="79">
+      <c r="H16" s="47">
         <v>42841</v>
       </c>
       <c r="I16" s="29" t="s">
@@ -4018,7 +4013,7 @@
       </c>
       <c r="J16" s="29"/>
       <c r="K16" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L16" s="27"/>
     </row>
@@ -4027,28 +4022,28 @@
         <v>5</v>
       </c>
       <c r="B17" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="D17" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="80" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
       <c r="G17" s="28"/>
-      <c r="H17" s="79">
+      <c r="H17" s="47">
         <v>42841</v>
       </c>
       <c r="I17" s="29" t="s">
         <v>8</v>
       </c>
       <c r="J17" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K17" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L17" s="27"/>
     </row>
@@ -4057,28 +4052,28 @@
         <v>6</v>
       </c>
       <c r="B18" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="D18" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
       <c r="G18" s="28"/>
-      <c r="H18" s="79">
+      <c r="H18" s="47">
         <v>42841</v>
       </c>
       <c r="I18" s="29" t="s">
         <v>8</v>
       </c>
       <c r="J18" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K18" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L18" s="27"/>
     </row>
@@ -4087,28 +4082,28 @@
         <v>7</v>
       </c>
       <c r="B19" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="80" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
       <c r="G19" s="28"/>
-      <c r="H19" s="79">
+      <c r="H19" s="47">
         <v>42841</v>
       </c>
       <c r="I19" s="29" t="s">
         <v>8</v>
       </c>
       <c r="J19" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K19" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L19" s="27"/>
     </row>
@@ -4117,18 +4112,18 @@
         <v>23</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="80" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
+        <v>73</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
       <c r="G20" s="28"/>
-      <c r="H20" s="79">
+      <c r="H20" s="47">
         <v>42841</v>
       </c>
       <c r="I20" s="29" t="s">
@@ -4136,7 +4131,7 @@
       </c>
       <c r="J20" s="29"/>
       <c r="K20" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L20" s="27"/>
     </row>
@@ -4145,18 +4140,18 @@
         <v>24</v>
       </c>
       <c r="B21" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="D21" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
       <c r="G21" s="28"/>
-      <c r="H21" s="79">
+      <c r="H21" s="47">
         <v>42841</v>
       </c>
       <c r="I21" s="29" t="s">
@@ -4164,7 +4159,7 @@
       </c>
       <c r="J21" s="29"/>
       <c r="K21" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L21" s="27"/>
     </row>
@@ -4173,18 +4168,18 @@
         <v>25</v>
       </c>
       <c r="B22" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="D22" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
       <c r="G22" s="28"/>
-      <c r="H22" s="79">
+      <c r="H22" s="47">
         <v>42841</v>
       </c>
       <c r="I22" s="29" t="s">
@@ -4192,7 +4187,7 @@
       </c>
       <c r="J22" s="43"/>
       <c r="K22" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L22" s="32"/>
     </row>
@@ -4201,28 +4196,28 @@
         <v>26</v>
       </c>
       <c r="B23" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
+      <c r="D23" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="79">
+      <c r="H23" s="47">
         <v>42841</v>
       </c>
       <c r="I23" s="29" t="s">
         <v>8</v>
       </c>
       <c r="J23" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L23" s="32"/>
     </row>
@@ -4231,28 +4226,28 @@
         <v>27</v>
       </c>
       <c r="B24" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="80" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
+      <c r="D24" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
       <c r="G24" s="28"/>
-      <c r="H24" s="79">
+      <c r="H24" s="47">
         <v>42841</v>
       </c>
       <c r="I24" s="29" t="s">
         <v>8</v>
       </c>
       <c r="J24" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K24" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L24" s="42"/>
       <c r="M24" s="41"/>
@@ -4265,18 +4260,18 @@
         <v>28</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="80" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
+        <v>77</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
       <c r="G25" s="28"/>
-      <c r="H25" s="79">
+      <c r="H25" s="47">
         <v>42841</v>
       </c>
       <c r="I25" s="29" t="s">
@@ -4284,7 +4279,7 @@
       </c>
       <c r="J25" s="38"/>
       <c r="K25" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L25" s="32"/>
     </row>
@@ -4293,18 +4288,18 @@
         <v>29</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
       <c r="G26" s="28"/>
-      <c r="H26" s="79">
+      <c r="H26" s="47">
         <v>42841</v>
       </c>
       <c r="I26" s="29" t="s">
@@ -4312,7 +4307,7 @@
       </c>
       <c r="J26" s="38"/>
       <c r="K26" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L26" s="32"/>
     </row>
@@ -4321,18 +4316,18 @@
         <v>30</v>
       </c>
       <c r="B27" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="D27" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="80" t="s">
-        <v>83</v>
-      </c>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
       <c r="G27" s="28"/>
-      <c r="H27" s="79">
+      <c r="H27" s="47">
         <v>42841</v>
       </c>
       <c r="I27" s="29" t="s">
@@ -4340,7 +4335,7 @@
       </c>
       <c r="J27" s="38"/>
       <c r="K27" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L27" s="32"/>
     </row>
@@ -4349,18 +4344,18 @@
         <v>0</v>
       </c>
       <c r="B28" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="D28" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="80" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="28"/>
-      <c r="H28" s="79">
+      <c r="H28" s="47">
         <v>42841</v>
       </c>
       <c r="I28" s="29" t="s">
@@ -4368,25 +4363,25 @@
       </c>
       <c r="J28" s="38"/>
       <c r="K28" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L28" s="32"/>
     </row>
     <row r="29" spans="1:16" s="3" customFormat="1" ht="12.75">
-      <c r="A29" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="51"/>
+      <c r="A29" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="52"/>
     </row>
     <row r="30" spans="1:16" ht="12" customHeight="1">
       <c r="I30"/>
@@ -4641,20 +4636,12 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="A29:L29"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:G10"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D15:F15"/>
     <mergeCell ref="B1:D2"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="B5:D5"/>
@@ -4670,17 +4657,25 @@
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="A11:L11"/>
     <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
     <mergeCell ref="D17:F17"/>
-    <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:G10"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D15:F15"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>

--- a/test-cases-16.04.2017.xlsx
+++ b/test-cases-16.04.2017.xlsx
@@ -187,13 +187,6 @@
     <t>Register with duplicate email</t>
   </si>
   <si>
-    <t>1: Open blog "Register" page
-2: Type "test@test.com" in "Email" field
-3: Type "Ivan Ivanov" in "Full Name" field
-4: Type "123456" in "Password" field
-5: Type "123456"in "Confirm Password"field 6: Click on "Register" button 7: Log off and try to register with the same email address</t>
-  </si>
-  <si>
     <t>"The Email field is not a valid e-mail address." message should be shown to user</t>
   </si>
   <si>
@@ -384,6 +377,13 @@
 3: Type "Ivan Ivanov" in "Full Name" field
 4: Type "123456" in "Password" field
 5: Type "123456"in "Confirm Password" field 6: Click on "Register" button</t>
+  </si>
+  <si>
+    <t>1: Open blog "Register" page
+2: Type "test@test.com" in "Email" field
+3: Type "Ivan Ivanov" in "Full Name" field
+4: Type "123456" in "Password" field
+5: Type "123456" in "Confirm Password"field 6: Click on "Register" button 7: Log off and try to register with the same email address</t>
   </si>
 </sst>
 </file>
@@ -947,107 +947,107 @@
     <xf numFmtId="14" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3655,7 +3655,7 @@
   <dimension ref="A1:P65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -3675,9 +3675,9 @@
       <c r="A1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -3690,9 +3690,9 @@
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A2" s="5"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -3707,57 +3707,57 @@
       <c r="A3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
+      <c r="B3" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="69"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="12.75">
       <c r="A4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="70"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
       <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="23" customFormat="1" ht="12.75">
       <c r="A5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
       <c r="M5" s="22"/>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1">
@@ -3778,11 +3778,11 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
       <c r="M6" s="7"/>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -3803,18 +3803,18 @@
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
       <c r="M7" s="7"/>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="59"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -3826,82 +3826,82 @@
       <c r="M8" s="7"/>
     </row>
     <row r="9" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="71" t="s">
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="67" t="s">
+      <c r="I9" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="48" t="s">
+      <c r="J9" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="48" t="s">
+      <c r="K9" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="67" t="s">
+      <c r="L9" s="49" t="s">
         <v>18</v>
       </c>
       <c r="M9" s="24"/>
     </row>
     <row r="10" spans="1:13" s="19" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="67"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="67"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="49"/>
       <c r="M10" s="18"/>
     </row>
     <row r="11" spans="1:13" s="26" customFormat="1" ht="15">
-      <c r="A11" s="73"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="74"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="76"/>
     </row>
     <row r="12" spans="1:13" s="3" customFormat="1" ht="12.75">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="52"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="66"/>
     </row>
     <row r="13" spans="1:13" s="3" customFormat="1" ht="76.5" outlineLevel="1">
       <c r="A13" s="30" t="s">
@@ -3911,13 +3911,13 @@
         <v>34</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
       <c r="G13" s="28"/>
       <c r="H13" s="47">
         <v>42841</v>
@@ -3941,11 +3941,11 @@
       <c r="C14" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
+      <c r="D14" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
       <c r="G14" s="28"/>
       <c r="H14" s="47">
         <v>42841</v>
@@ -3967,13 +3967,13 @@
         <v>41</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
+        <v>88</v>
+      </c>
+      <c r="D15" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
       <c r="G15" s="28"/>
       <c r="H15" s="47">
         <v>42841</v>
@@ -3982,7 +3982,7 @@
         <v>8</v>
       </c>
       <c r="J15" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K15" s="29" t="s">
         <v>38</v>
@@ -3994,16 +3994,16 @@
         <v>4</v>
       </c>
       <c r="B16" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
       <c r="G16" s="28"/>
       <c r="H16" s="47">
         <v>42841</v>
@@ -4022,16 +4022,16 @@
         <v>5</v>
       </c>
       <c r="B17" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="D17" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
       <c r="G17" s="28"/>
       <c r="H17" s="47">
         <v>42841</v>
@@ -4040,7 +4040,7 @@
         <v>8</v>
       </c>
       <c r="J17" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K17" s="29" t="s">
         <v>38</v>
@@ -4052,16 +4052,16 @@
         <v>6</v>
       </c>
       <c r="B18" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="D18" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
       <c r="G18" s="28"/>
       <c r="H18" s="47">
         <v>42841</v>
@@ -4070,7 +4070,7 @@
         <v>8</v>
       </c>
       <c r="J18" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K18" s="29" t="s">
         <v>38</v>
@@ -4082,16 +4082,16 @@
         <v>7</v>
       </c>
       <c r="B19" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
       <c r="G19" s="28"/>
       <c r="H19" s="47">
         <v>42841</v>
@@ -4100,7 +4100,7 @@
         <v>8</v>
       </c>
       <c r="J19" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K19" s="29" t="s">
         <v>38</v>
@@ -4112,16 +4112,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
+        <v>72</v>
+      </c>
+      <c r="D20" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
       <c r="G20" s="28"/>
       <c r="H20" s="47">
         <v>42841</v>
@@ -4140,16 +4140,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="D21" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
       <c r="G21" s="28"/>
       <c r="H21" s="47">
         <v>42841</v>
@@ -4168,16 +4168,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="D22" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
       <c r="G22" s="28"/>
       <c r="H22" s="47">
         <v>42841</v>
@@ -4196,16 +4196,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
+      <c r="D23" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
       <c r="G23" s="28"/>
       <c r="H23" s="47">
         <v>42841</v>
@@ -4214,7 +4214,7 @@
         <v>8</v>
       </c>
       <c r="J23" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K23" s="29" t="s">
         <v>38</v>
@@ -4226,16 +4226,16 @@
         <v>27</v>
       </c>
       <c r="B24" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
+      <c r="D24" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
       <c r="G24" s="28"/>
       <c r="H24" s="47">
         <v>42841</v>
@@ -4244,7 +4244,7 @@
         <v>8</v>
       </c>
       <c r="J24" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K24" s="29" t="s">
         <v>38</v>
@@ -4260,16 +4260,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
+        <v>76</v>
+      </c>
+      <c r="D25" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
       <c r="G25" s="28"/>
       <c r="H25" s="47">
         <v>42841</v>
@@ -4288,16 +4288,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C26" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
       <c r="G26" s="28"/>
       <c r="H26" s="47">
         <v>42841</v>
@@ -4316,16 +4316,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="D27" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
       <c r="G27" s="28"/>
       <c r="H27" s="47">
         <v>42841</v>
@@ -4344,16 +4344,16 @@
         <v>0</v>
       </c>
       <c r="B28" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="D28" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
       <c r="G28" s="28"/>
       <c r="H28" s="47">
         <v>42841</v>
@@ -4368,20 +4368,20 @@
       <c r="L28" s="32"/>
     </row>
     <row r="29" spans="1:16" s="3" customFormat="1" ht="12.75">
-      <c r="A29" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="52"/>
+      <c r="A29" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="66"/>
     </row>
     <row r="30" spans="1:16" ht="12" customHeight="1">
       <c r="I30"/>
@@ -4636,12 +4636,22 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:G10"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="B1:D2"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="B5:D5"/>
@@ -4658,22 +4668,12 @@
     <mergeCell ref="A11:L11"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="A29:L29"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:G10"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D15:F15"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
